--- a/output7/【河洛白話注音-閩拼調號】《俗諺 001》.xlsx
+++ b/output7/【河洛白話注音-閩拼調號】《俗諺 001》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB9EAB7-E88A-43D7-B5EA-CD090637EC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B5C13A-171A-4FD6-8237-0641A0124F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="1223">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4078,9 +4078,6 @@
     <t>(9, 10)</t>
   </si>
   <si>
-    <t>kho2</t>
-  </si>
-  <si>
     <t>kang2</t>
   </si>
   <si>
@@ -4159,14 +4156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kang2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4203,6 +4192,13 @@
   </si>
   <si>
     <t>thang1</t>
+  </si>
+  <si>
+    <t>thang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tang1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4210,7 +4206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4486,6 +4482,14 @@
       <color rgb="FF3399FF"/>
       <name val="Sitka Text Semibold"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4590,7 +4594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4769,6 +4773,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6584,7 +6591,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -6642,7 +6649,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30">
@@ -6782,7 +6789,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C4" t="s">
         <v>499</v>
@@ -6852,7 +6859,7 @@
         <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C9" t="s">
         <v>499</v>
@@ -6866,7 +6873,7 @@
         <v>1176</v>
       </c>
       <c r="B10" t="s">
-        <v>1189</v>
+        <v>1220</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
@@ -6880,13 +6887,13 @@
         <v>1177</v>
       </c>
       <c r="B11" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C11" t="s">
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6894,13 +6901,13 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C12" t="s">
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6908,13 +6915,13 @@
         <v>1178</v>
       </c>
       <c r="B13" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6922,13 +6929,13 @@
         <v>1179</v>
       </c>
       <c r="B14" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C14" t="s">
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
   </sheetData>
@@ -6967,12 +6974,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262D1C6C-BBC2-4785-9967-19BE4EB3B180}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6986,7 +7022,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -7196,7 +7232,7 @@
         <v>589</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
@@ -7237,23 +7273,23 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="50" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>770</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="50" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="K8" s="50"/>
       <c r="L8" s="50"/>
@@ -7313,23 +7349,23 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
       <c r="D10" s="51" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="51" t="s">
         <v>1201</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>1202</v>
-      </c>
       <c r="F10" s="51" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G10" s="51"/>
       <c r="H10" s="51" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="K10" s="51"/>
       <c r="L10" s="51"/>
@@ -7347,7 +7383,7 @@
       <c r="C11" s="31"/>
       <c r="D11" s="52"/>
       <c r="E11" s="52" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
@@ -7367,22 +7403,22 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="50" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>1212</v>
+        <v>1221</v>
       </c>
       <c r="F12" s="50" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G12" s="50" t="s">
         <v>1214</v>
       </c>
-      <c r="G12" s="50" t="s">
-        <v>1217</v>
-      </c>
       <c r="H12" s="50" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
@@ -7404,7 +7440,7 @@
       <c r="D13" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="60" t="s">
         <v>1176</v>
       </c>
       <c r="F13" s="59" t="s">
@@ -7440,22 +7476,22 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
       <c r="D14" s="51" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>1213</v>
+        <v>1222</v>
       </c>
       <c r="F14" s="51" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G14" s="51" t="s">
         <v>1215</v>
       </c>
-      <c r="G14" s="51" t="s">
-        <v>1218</v>
-      </c>
       <c r="H14" s="51" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="J14" s="51"/>
       <c r="K14" s="51"/>

--- a/output7/【河洛白話注音-閩拼調號】《俗諺 001》.xlsx
+++ b/output7/【河洛白話注音-閩拼調號】《俗諺 001》.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B5C13A-171A-4FD6-8237-0641A0124F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F81058B8-D1F9-41CC-AC78-5FA2E2B8D3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="標音字庫" sheetId="125" r:id="rId2"/>
-    <sheet name="缺字表" sheetId="126" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="127" r:id="rId4"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId6"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId7"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId8"/>
+    <sheet name="標音字庫" sheetId="123" r:id="rId2"/>
+    <sheet name="缺字表" sheetId="122" r:id="rId3"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId4"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId5"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId6"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="1213">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4009,6 +4008,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>白話音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>《</t>
   </si>
   <si>
@@ -4054,6 +4057,9 @@
 </t>
   </si>
   <si>
+    <t>zit8</t>
+  </si>
+  <si>
     <t>(9, 4); (9, 8)</t>
   </si>
   <si>
@@ -4078,12 +4084,21 @@
     <t>(9, 10)</t>
   </si>
   <si>
+    <t>m7</t>
+  </si>
+  <si>
+    <t>kho2</t>
+  </si>
+  <si>
     <t>kang2</t>
   </si>
   <si>
     <t>(13, 6)</t>
   </si>
   <si>
+    <t>bo5</t>
+  </si>
+  <si>
     <t>(13, 7)</t>
   </si>
   <si>
@@ -4099,106 +4114,40 @@
     <t>(13, 9)</t>
   </si>
   <si>
+    <t>ggan6</t>
+  </si>
+  <si>
+    <t>gi1</t>
+  </si>
+  <si>
+    <t>cao3</t>
+  </si>
+  <si>
+    <t>diam3</t>
+  </si>
+  <si>
+    <t>loo6</t>
+  </si>
+  <si>
+    <t>m6</t>
+  </si>
+  <si>
+    <t>ko3</t>
+  </si>
+  <si>
+    <t>gang3</t>
+  </si>
+  <si>
+    <t>bbo2</t>
+  </si>
+  <si>
+    <t>huat7</t>
+  </si>
+  <si>
+    <t>doo6</t>
+  </si>
+  <si>
     <t>俗諺 001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白話音</t>
-  </si>
-  <si>
-    <t>ggan6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zit8</t>
-  </si>
-  <si>
-    <t>zit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cao3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiam2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diam3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kang2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gang3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>too7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doo6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thang1</t>
-  </si>
-  <si>
-    <t>thang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tang1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4206,7 +4155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4482,14 +4431,6 @@
       <color rgb="FF3399FF"/>
       <name val="Sitka Text Semibold"/>
     </font>
-    <font>
-      <b/>
-      <sz val="48"/>
-      <color rgb="FFFF0000"/>
-      <name val="吳守禮細明台語注音"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4594,7 +4535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4771,12 +4712,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6539,7 +6474,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -6591,7 +6526,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1196</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -6649,7 +6584,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>1197</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30">
@@ -6735,7 +6670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537819D4-F23D-4EB4-AD00-69B5BFF28F82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37177EA1-876A-49BE-B224-40105A42D03E}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6758,7 +6693,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -6772,7 +6707,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B3" t="s">
         <v>439</v>
@@ -6789,18 +6724,18 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="C4" t="s">
         <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B5" t="s">
         <v>418</v>
@@ -6809,49 +6744,49 @@
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B6" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C6" t="s">
         <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B7" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C7" t="s">
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B8" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C8" t="s">
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6859,7 +6794,7 @@
         <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>1208</v>
+        <v>1191</v>
       </c>
       <c r="C9" t="s">
         <v>499</v>
@@ -6870,10 +6805,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B10" t="s">
-        <v>1220</v>
+        <v>1192</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
@@ -6884,16 +6819,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B11" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="C11" t="s">
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6901,41 +6836,41 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>1213</v>
+        <v>1195</v>
       </c>
       <c r="C12" t="s">
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B13" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B14" t="s">
-        <v>1194</v>
+        <v>1199</v>
       </c>
       <c r="C14" t="s">
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1195</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -6945,7 +6880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE2664-51CD-4B6C-9252-4145CD7FAD46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED70598-A5C2-40FE-A3A1-2C6356B07C81}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6973,48 +6908,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262D1C6C-BBC2-4785-9967-19BE4EB3B180}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
@@ -7022,7 +6915,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -7155,17 +7048,17 @@
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
       <c r="V3" s="54" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50" t="s">
-        <v>589</v>
+        <v>58</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>818</v>
+        <v>439</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -7186,31 +7079,31 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="39" t="s">
         <v>1168</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="E5" s="39" t="s">
         <v>1169</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="39" t="s">
         <v>1170</v>
       </c>
-      <c r="H5" s="59">
+      <c r="G5" s="39" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H5" s="39">
         <v>0</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="39">
         <v>0</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="39">
         <v>1</v>
       </c>
-      <c r="K5" s="59" t="s">
-        <v>1171</v>
-      </c>
-      <c r="L5" s="59" t="str">
+      <c r="K5" s="39" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L5" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -7229,10 +7122,10 @@
       <c r="C6" s="22"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51" t="s">
-        <v>589</v>
+        <v>58</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
@@ -7273,23 +7166,23 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="50" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>770</v>
+        <v>418</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="50" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>1206</v>
+        <v>1189</v>
       </c>
       <c r="K8" s="50"/>
       <c r="L8" s="50"/>
@@ -7307,31 +7200,31 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="59" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F9" s="59" t="s">
+      <c r="E9" s="39" t="s">
         <v>1173</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="F9" s="39" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="59" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J9" s="59" t="s">
+      <c r="I9" s="39" t="s">
         <v>1175</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="J9" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="59" t="str">
+      <c r="L9" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -7349,23 +7242,23 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
       <c r="D10" s="51" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F10" s="51" t="s">
         <v>1203</v>
       </c>
       <c r="G10" s="51"/>
       <c r="H10" s="51" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="I10" s="51" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J10" s="51" t="s">
         <v>1205</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>1207</v>
       </c>
       <c r="K10" s="51"/>
       <c r="L10" s="51"/>
@@ -7382,9 +7275,7 @@
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
       <c r="D11" s="52"/>
-      <c r="E11" s="52" t="s">
-        <v>1221</v>
-      </c>
+      <c r="E11" s="52"/>
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
@@ -7403,22 +7294,22 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="50" t="s">
-        <v>1209</v>
+        <v>1191</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>1221</v>
+        <v>1192</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>1211</v>
+        <v>1193</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>1214</v>
+        <v>1195</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>1216</v>
+        <v>1197</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>1218</v>
+        <v>1199</v>
       </c>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
@@ -7437,28 +7328,28 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="60" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F13" s="59" t="s">
+      <c r="E13" s="39" t="s">
         <v>1177</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="F13" s="39" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="59" t="s">
-        <v>1178</v>
-      </c>
-      <c r="I13" s="59" t="s">
+      <c r="H13" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="I13" s="39" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J13" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="59" t="str">
+      <c r="K13" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -7476,22 +7367,22 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
       <c r="D14" s="51" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H14" s="51" t="s">
         <v>1210</v>
       </c>
-      <c r="E14" s="51" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>1215</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>1217</v>
-      </c>
       <c r="I14" s="51" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="J14" s="51"/>
       <c r="K14" s="51"/>
@@ -7550,7 +7441,7 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="39" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="39"/>
@@ -47025,7 +46916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -47194,7 +47085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -51257,7 +51148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V241"/>
   <sheetViews>
